--- a/KYMR.xlsx
+++ b/KYMR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE351DE-7297-42BF-85E6-47326DB88CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F43FE-CAC3-4F47-9B39-6A41F37CDA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36915" yWindow="915" windowWidth="25215" windowHeight="16575" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
+    <workbookView xWindow="16080" yWindow="3400" windowWidth="22530" windowHeight="16580" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Founded: 2015</t>
+  </si>
+  <si>
+    <t>KT-295</t>
+  </si>
+  <si>
+    <t>FIC Autoimmune</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,7 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -271,10 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,30 +624,30 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="5"/>
@@ -651,27 +656,26 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -682,48 +686,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>2849.6720560000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2655.3762340000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -735,20 +736,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="8"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -759,50 +758,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="8"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>1938.6670560000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>1744.3712340000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -813,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>8</v>
       </c>
@@ -824,17 +820,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>31</v>
       </c>

--- a/KYMR.xlsx
+++ b/KYMR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F43FE-CAC3-4F47-9B39-6A41F37CDA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC61642-4589-424B-B7F8-C6665377263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="3400" windowWidth="22530" windowHeight="16580" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
+    <workbookView xWindow="48880" yWindow="2060" windowWidth="23490" windowHeight="14960" activeTab="1" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="KT-621" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
     <t>PIC</t>
   </si>
   <si>
@@ -138,14 +136,62 @@
   </si>
   <si>
     <t>FIC Autoimmune</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>STAT6 PROTAC</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase I healthy humans</t>
+  </si>
+  <si>
+    <t>90% STAT6 reductions</t>
+  </si>
+  <si>
+    <t>TARC</t>
+  </si>
+  <si>
+    <t>eotaxin-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -255,10 +301,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,8 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472B9B61-C4D8-4735-A23F-10949B5FD84D}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -636,19 +687,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
@@ -656,51 +707,51 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>64.765274000000005</v>
+        <v>65.119568000000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>25</v>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="8"/>
       <c r="K4" t="s">
@@ -708,43 +759,43 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>2655.3762340000003</v>
+        <v>2409.4240159999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>110.718+439.252+361.035</f>
-        <v>911.00500000000011</v>
+        <f>89.966+373.184+312.335</f>
+        <v>775.48500000000001</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13"/>
       <c r="H6" s="8"/>
@@ -755,15 +806,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="13"/>
       <c r="F7" s="13"/>
@@ -773,13 +824,13 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>1744.3712340000002</v>
+        <v>1633.9390159999998</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13"/>
       <c r="F8" s="13"/>
@@ -800,42 +851,126 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="2">
-        <v>1574.85</v>
+        <v>1606.4749999999999</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2">
-        <v>683.85799999999995</v>
+        <v>820.19100000000003</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'KT-621'!A1" display="KT-621" xr:uid="{A859EF28-0BDC-4B4E-85C7-0C01E6A47A11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53718AE5-1A6E-401C-971C-65AA794CA67A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{ED55CE26-C610-468F-80CB-D2E2F701AB23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KYMR.xlsx
+++ b/KYMR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC61642-4589-424B-B7F8-C6665377263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B4A75-BA4C-4207-B1FE-36A397123252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48880" yWindow="2060" windowWidth="23490" windowHeight="14960" activeTab="1" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
+    <workbookView xWindow="35310" yWindow="1860" windowWidth="21130" windowHeight="12930" xr2:uid="{123EA940-6ABB-419C-9A7D-9A1B0B16FB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Price</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>eotaxin-3</t>
+  </si>
+  <si>
+    <t>CDK2</t>
+  </si>
+  <si>
+    <t>GILD</t>
   </si>
 </sst>
 </file>
@@ -674,18 +680,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472B9B61-C4D8-4735-A23F-10949B5FD84D}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>47.08</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
@@ -737,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
@@ -759,10 +766,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>2409.4240159999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3065.8292614399998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
@@ -787,7 +794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
@@ -809,7 +816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
@@ -824,10 +831,10 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>1633.9390159999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2290.3442614399996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>32</v>
@@ -836,13 +843,18 @@
       <c r="F8" s="13"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="D9" s="13"/>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="15"/>
@@ -860,7 +872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>7</v>
       </c>
@@ -871,17 +883,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>30</v>
       </c>
@@ -898,22 +910,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53718AE5-1A6E-401C-971C-65AA794CA67A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -921,12 +931,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -934,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -942,27 +952,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>43</v>
       </c>
